--- a/data/pca/factorExposure/factorExposure_2019-02-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-02-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.113155530306912</v>
+        <v>-0.06762861142968776</v>
       </c>
       <c r="C2">
-        <v>-0.01782609037253271</v>
+        <v>-0.03335689330272238</v>
       </c>
       <c r="D2">
-        <v>0.04551505845551049</v>
+        <v>-0.01687109987257374</v>
       </c>
       <c r="E2">
-        <v>0.09201973154822053</v>
+        <v>-0.03988879792115333</v>
       </c>
       <c r="F2">
-        <v>0.1126314408763118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.1357900950456117</v>
+      </c>
+      <c r="G2">
+        <v>0.06810134223468105</v>
+      </c>
+      <c r="H2">
+        <v>-0.04115581011667305</v>
+      </c>
+      <c r="I2">
+        <v>-0.07507823372549317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.2200452705195449</v>
+        <v>-0.1602797783674533</v>
       </c>
       <c r="C3">
-        <v>-0.1437491343235733</v>
+        <v>-0.1014225540158292</v>
       </c>
       <c r="D3">
-        <v>-0.04107767498136494</v>
+        <v>0.008173756686440256</v>
       </c>
       <c r="E3">
-        <v>0.1322460747564703</v>
+        <v>0.001719700004570961</v>
       </c>
       <c r="F3">
-        <v>0.331960272319257</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.3746502248825077</v>
+      </c>
+      <c r="G3">
+        <v>0.2455837812926882</v>
+      </c>
+      <c r="H3">
+        <v>-0.03919367172947155</v>
+      </c>
+      <c r="I3">
+        <v>-0.3294126415512585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.09720323081539156</v>
+        <v>-0.07238517139041707</v>
       </c>
       <c r="C4">
-        <v>-0.04746473698087846</v>
+        <v>-0.04675558672847428</v>
       </c>
       <c r="D4">
-        <v>0.03353652744534161</v>
+        <v>0.01662271064487957</v>
       </c>
       <c r="E4">
-        <v>0.02523051510543624</v>
+        <v>-0.04200751514190425</v>
       </c>
       <c r="F4">
-        <v>0.0732101798608186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.07985014570771737</v>
+      </c>
+      <c r="G4">
+        <v>0.02963121167035673</v>
+      </c>
+      <c r="H4">
+        <v>-0.04101382243041887</v>
+      </c>
+      <c r="I4">
+        <v>-0.04318276214411111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.02068182366790063</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.01087894740729069</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.005268433958054939</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.004761291467323926</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.007557948120828325</v>
+      </c>
+      <c r="G6">
+        <v>-0.007818297638849357</v>
+      </c>
+      <c r="H6">
+        <v>0.01786129552143402</v>
+      </c>
+      <c r="I6">
+        <v>0.01480933123852228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.04399621052639582</v>
+        <v>-0.03479795604381253</v>
       </c>
       <c r="C7">
-        <v>-0.01974996580500993</v>
+        <v>-0.01641188064536908</v>
       </c>
       <c r="D7">
-        <v>0.03146653188839745</v>
+        <v>0.03682037994161884</v>
       </c>
       <c r="E7">
-        <v>0.06080391657786252</v>
+        <v>-0.0285887142670672</v>
       </c>
       <c r="F7">
-        <v>0.03964786717287511</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.05026824197630447</v>
+      </c>
+      <c r="G7">
+        <v>0.05589175700233626</v>
+      </c>
+      <c r="H7">
+        <v>0.007529206665416493</v>
+      </c>
+      <c r="I7">
+        <v>-0.01716429542645924</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.04769296880843112</v>
+        <v>-0.02844352447834707</v>
       </c>
       <c r="C8">
-        <v>-0.05360337550607812</v>
+        <v>-0.04958379149572407</v>
       </c>
       <c r="D8">
-        <v>0.01099061130048928</v>
+        <v>0.01395001147073265</v>
       </c>
       <c r="E8">
-        <v>0.01650209790520931</v>
+        <v>-0.0221073431558027</v>
       </c>
       <c r="F8">
-        <v>0.07192348921512247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.07226223456457791</v>
+      </c>
+      <c r="G8">
+        <v>0.04608679144115461</v>
+      </c>
+      <c r="H8">
+        <v>-0.03336208332656375</v>
+      </c>
+      <c r="I8">
+        <v>-0.0516647263884181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.08326952663364742</v>
+        <v>-0.06135851279075951</v>
       </c>
       <c r="C9">
-        <v>-0.04048689958227519</v>
+        <v>-0.04242306473862557</v>
       </c>
       <c r="D9">
-        <v>0.04153010534606131</v>
+        <v>0.02032703198522234</v>
       </c>
       <c r="E9">
-        <v>0.002248526308400118</v>
+        <v>-0.0369038473010336</v>
       </c>
       <c r="F9">
-        <v>0.06870053991234187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.07938027339528864</v>
+      </c>
+      <c r="G9">
+        <v>0.03061032088614149</v>
+      </c>
+      <c r="H9">
+        <v>-0.03880947893096041</v>
+      </c>
+      <c r="I9">
+        <v>-0.01999296006500955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.02697640752591252</v>
+        <v>-0.03700601396725072</v>
       </c>
       <c r="C10">
-        <v>0.1653051525415631</v>
+        <v>0.1613797226954596</v>
       </c>
       <c r="D10">
-        <v>-0.02683439215216461</v>
+        <v>-0.01593795267492421</v>
       </c>
       <c r="E10">
-        <v>0.05985982039662778</v>
+        <v>0.03682929021513708</v>
       </c>
       <c r="F10">
-        <v>0.03694631210447551</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.06387813062498089</v>
+      </c>
+      <c r="G10">
+        <v>0.00667918146304023</v>
+      </c>
+      <c r="H10">
+        <v>-0.03171616017956513</v>
+      </c>
+      <c r="I10">
+        <v>-0.09824122537118041</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05798386287197596</v>
+        <v>-0.04921310203815325</v>
       </c>
       <c r="C11">
-        <v>-0.01609774852327718</v>
+        <v>-0.0318719889942297</v>
       </c>
       <c r="D11">
-        <v>-0.003720539115159317</v>
+        <v>-0.004683952619164624</v>
       </c>
       <c r="E11">
-        <v>0.03097501519437865</v>
+        <v>-0.01064522321533087</v>
       </c>
       <c r="F11">
-        <v>0.03218493550194702</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03823146599285115</v>
+      </c>
+      <c r="G11">
+        <v>0.004793929427507392</v>
+      </c>
+      <c r="H11">
+        <v>-0.0140647531800261</v>
+      </c>
+      <c r="I11">
+        <v>-0.0003498517662895245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04475442571311936</v>
+        <v>-0.04430351076646805</v>
       </c>
       <c r="C12">
-        <v>-0.01868651228469143</v>
+        <v>-0.02854438818083171</v>
       </c>
       <c r="D12">
-        <v>-0.001384817213373313</v>
+        <v>0.006395763731228491</v>
       </c>
       <c r="E12">
-        <v>0.01044155087004443</v>
+        <v>-0.01137345840508503</v>
       </c>
       <c r="F12">
-        <v>0.02776205613430441</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01535960151004677</v>
+      </c>
+      <c r="G12">
+        <v>0.006351068379781109</v>
+      </c>
+      <c r="H12">
+        <v>-0.003505192935896553</v>
+      </c>
+      <c r="I12">
+        <v>0.00205347120759007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06346705459077315</v>
+        <v>-0.04383894837114798</v>
       </c>
       <c r="C13">
-        <v>-0.03082461920385795</v>
+        <v>-0.02634130079524778</v>
       </c>
       <c r="D13">
-        <v>-0.002111974815952631</v>
+        <v>-0.01436354093807893</v>
       </c>
       <c r="E13">
-        <v>0.07259015404363059</v>
+        <v>-0.01001024250946149</v>
       </c>
       <c r="F13">
-        <v>0.09009878750563595</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.1039507019534576</v>
+      </c>
+      <c r="G13">
+        <v>0.04228900988600356</v>
+      </c>
+      <c r="H13">
+        <v>-0.02237584826607796</v>
+      </c>
+      <c r="I13">
+        <v>-0.03398927684854696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03415828674934081</v>
+        <v>-0.0271356930001699</v>
       </c>
       <c r="C14">
-        <v>-0.02489909327534999</v>
+        <v>-0.02008873159367669</v>
       </c>
       <c r="D14">
-        <v>0.02880460933553603</v>
+        <v>0.006972490150226458</v>
       </c>
       <c r="E14">
-        <v>0.02915306310104681</v>
+        <v>-0.02773803163814333</v>
       </c>
       <c r="F14">
-        <v>0.01682109032799011</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03725868687814841</v>
+      </c>
+      <c r="G14">
+        <v>0.06065489856615455</v>
+      </c>
+      <c r="H14">
+        <v>-0.009313508722521176</v>
+      </c>
+      <c r="I14">
+        <v>-0.01389668149374772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.0479876990122358</v>
+        <v>-0.04239712906329967</v>
       </c>
       <c r="C16">
-        <v>-0.02455199333211313</v>
+        <v>-0.03586470021173488</v>
       </c>
       <c r="D16">
-        <v>-0.006005405164411867</v>
+        <v>0.0009346586057150405</v>
       </c>
       <c r="E16">
-        <v>0.01985268823304315</v>
+        <v>-0.009543129058750661</v>
       </c>
       <c r="F16">
-        <v>0.02909030330137407</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.03505679677325986</v>
+      </c>
+      <c r="G16">
+        <v>0.005754187849135176</v>
+      </c>
+      <c r="H16">
+        <v>-0.003096728850358389</v>
+      </c>
+      <c r="I16">
+        <v>-0.006559971046888322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.06043330966884815</v>
+        <v>-0.05118540776435097</v>
       </c>
       <c r="C19">
-        <v>-0.0462576266782589</v>
+        <v>-0.04465737106021353</v>
       </c>
       <c r="D19">
-        <v>0.002702561823390276</v>
+        <v>-0.00121911191540975</v>
       </c>
       <c r="E19">
-        <v>0.0484532028196035</v>
+        <v>-0.02386072149961157</v>
       </c>
       <c r="F19">
-        <v>0.07180569593648954</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.08952744742207286</v>
+      </c>
+      <c r="G19">
+        <v>0.06207667134559111</v>
+      </c>
+      <c r="H19">
+        <v>-0.003350394919952906</v>
+      </c>
+      <c r="I19">
+        <v>-0.05490588095890713</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.0383304711046629</v>
+        <v>-0.01909093757366184</v>
       </c>
       <c r="C20">
-        <v>-0.03989519104682</v>
+        <v>-0.0288519638592574</v>
       </c>
       <c r="D20">
-        <v>0.01835691181012595</v>
+        <v>0.007099967627116152</v>
       </c>
       <c r="E20">
-        <v>0.02953312975589564</v>
+        <v>-0.02294014673576765</v>
       </c>
       <c r="F20">
-        <v>0.06219129506596089</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.06477953637801234</v>
+      </c>
+      <c r="G20">
+        <v>0.06369699089769286</v>
+      </c>
+      <c r="H20">
+        <v>4.172243392366273e-06</v>
+      </c>
+      <c r="I20">
+        <v>-0.05414934790300278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03345779412250404</v>
+        <v>-0.03243270426112059</v>
       </c>
       <c r="C21">
-        <v>-0.03453636869217647</v>
+        <v>-0.02837697013418729</v>
       </c>
       <c r="D21">
-        <v>0.008511825127188092</v>
+        <v>0.01363304104614244</v>
       </c>
       <c r="E21">
-        <v>0.07501449521941538</v>
+        <v>-0.008918112460733329</v>
       </c>
       <c r="F21">
-        <v>0.08353755695435933</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.08251541504369385</v>
+      </c>
+      <c r="G21">
+        <v>0.03368186830230313</v>
+      </c>
+      <c r="H21">
+        <v>-0.04300885437790981</v>
+      </c>
+      <c r="I21">
+        <v>0.01342073126116446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.05132028333887821</v>
+        <v>-0.04187456673803723</v>
       </c>
       <c r="C24">
-        <v>-0.02182481768313789</v>
+        <v>-0.02932353648648774</v>
       </c>
       <c r="D24">
-        <v>-0.001474043581836596</v>
+        <v>0.001247516791951831</v>
       </c>
       <c r="E24">
-        <v>0.02151997868146832</v>
+        <v>-0.01152256604735575</v>
       </c>
       <c r="F24">
-        <v>0.04013990514802693</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.03871010275177574</v>
+      </c>
+      <c r="G24">
+        <v>0.003434314115681985</v>
+      </c>
+      <c r="H24">
+        <v>-0.005483720527951852</v>
+      </c>
+      <c r="I24">
+        <v>-0.001131945748036148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.05173862685452852</v>
+        <v>-0.04833538346817132</v>
       </c>
       <c r="C25">
-        <v>-0.01382083430048948</v>
+        <v>-0.02577982613827773</v>
       </c>
       <c r="D25">
-        <v>-0.001414397753580612</v>
+        <v>-0.0001018033794509452</v>
       </c>
       <c r="E25">
-        <v>0.02343393218632035</v>
+        <v>-0.009692982372019683</v>
       </c>
       <c r="F25">
-        <v>0.03474202011339197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.04402675522408488</v>
+      </c>
+      <c r="G25">
+        <v>0.002942761925024153</v>
+      </c>
+      <c r="H25">
+        <v>-0.01209076339131264</v>
+      </c>
+      <c r="I25">
+        <v>0.004621063475710213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.02119641693402784</v>
+        <v>-0.01775582814993922</v>
       </c>
       <c r="C26">
-        <v>-0.03173210956286095</v>
+        <v>-0.02633315143412001</v>
       </c>
       <c r="D26">
-        <v>0.008238429586386018</v>
+        <v>-0.003168075862344898</v>
       </c>
       <c r="E26">
-        <v>0.04590312334293292</v>
+        <v>-0.002736604567461273</v>
       </c>
       <c r="F26">
-        <v>0.01395385399242252</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.04402355121934221</v>
+      </c>
+      <c r="G26">
+        <v>0.04064747707006797</v>
+      </c>
+      <c r="H26">
+        <v>-0.009332613909007316</v>
+      </c>
+      <c r="I26">
+        <v>-0.003363211221574876</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1196699038584248</v>
+        <v>-0.07273731306101237</v>
       </c>
       <c r="C27">
-        <v>-0.03468401376201454</v>
+        <v>-0.02761086520208534</v>
       </c>
       <c r="D27">
-        <v>0.02079324627942871</v>
+        <v>0.006174386229179296</v>
       </c>
       <c r="E27">
-        <v>0.03105621389081436</v>
+        <v>-0.03610257796030775</v>
       </c>
       <c r="F27">
-        <v>0.07825044125435369</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.06434275772401546</v>
+      </c>
+      <c r="G27">
+        <v>0.01940470741031565</v>
+      </c>
+      <c r="H27">
+        <v>-0.02221607768917651</v>
+      </c>
+      <c r="I27">
+        <v>-0.03493054731506625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.02510746049206538</v>
+        <v>-0.05445564892124453</v>
       </c>
       <c r="C28">
-        <v>0.2489461475276388</v>
+        <v>0.2403956369091151</v>
       </c>
       <c r="D28">
-        <v>-0.03523858060375998</v>
+        <v>-0.01392255304942693</v>
       </c>
       <c r="E28">
-        <v>0.03764766138387364</v>
+        <v>0.05138123713898585</v>
       </c>
       <c r="F28">
-        <v>0.01717389002182374</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.05290343108733728</v>
+      </c>
+      <c r="G28">
+        <v>0.0009348188274677602</v>
+      </c>
+      <c r="H28">
+        <v>-0.03595560701469205</v>
+      </c>
+      <c r="I28">
+        <v>-0.1486937245605864</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.02637909892323289</v>
+        <v>-0.02363231901315291</v>
       </c>
       <c r="C29">
-        <v>-0.02398894316462529</v>
+        <v>-0.01748044968486611</v>
       </c>
       <c r="D29">
-        <v>0.03330509524553359</v>
+        <v>0.01038218562539961</v>
       </c>
       <c r="E29">
-        <v>0.02389458894036095</v>
+        <v>-0.02895461186020084</v>
       </c>
       <c r="F29">
-        <v>0.0225109818463531</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03375838399968008</v>
+      </c>
+      <c r="G29">
+        <v>0.06117580360176219</v>
+      </c>
+      <c r="H29">
+        <v>-0.01384804173055525</v>
+      </c>
+      <c r="I29">
+        <v>-0.002959134999250634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1132834553945061</v>
+        <v>-0.08955630663072388</v>
       </c>
       <c r="C30">
-        <v>-0.02566004984346636</v>
+        <v>-0.05112409109988517</v>
       </c>
       <c r="D30">
-        <v>0.03144458908785691</v>
+        <v>-0.03587778632586824</v>
       </c>
       <c r="E30">
-        <v>0.06634801362239535</v>
+        <v>-0.03306330176612516</v>
       </c>
       <c r="F30">
-        <v>0.08778464994705808</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.104761161846831</v>
+      </c>
+      <c r="G30">
+        <v>0.02254564605293798</v>
+      </c>
+      <c r="H30">
+        <v>0.009793298989873246</v>
+      </c>
+      <c r="I30">
+        <v>0.00386354129384607</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.06803082805534329</v>
+        <v>-0.06087071881495861</v>
       </c>
       <c r="C31">
-        <v>-0.02120583231184974</v>
+        <v>-0.0218191237751512</v>
       </c>
       <c r="D31">
-        <v>0.01827097085490412</v>
+        <v>-0.009199886733634293</v>
       </c>
       <c r="E31">
-        <v>0.03935953979224947</v>
+        <v>-0.02501913975204955</v>
       </c>
       <c r="F31">
-        <v>-0.05503914596558047</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.002060312242501101</v>
+      </c>
+      <c r="G31">
+        <v>0.05018010018197391</v>
+      </c>
+      <c r="H31">
+        <v>-0.02680392683871741</v>
+      </c>
+      <c r="I31">
+        <v>-0.01886276218283644</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.07075321830449291</v>
+        <v>-0.0427374652331446</v>
       </c>
       <c r="C32">
-        <v>-0.04040211359829088</v>
+        <v>-0.04454176164200944</v>
       </c>
       <c r="D32">
-        <v>0.02567343297709431</v>
+        <v>0.01737324283576984</v>
       </c>
       <c r="E32">
-        <v>0.05258070600720773</v>
+        <v>-0.03753854950946352</v>
       </c>
       <c r="F32">
-        <v>0.08239982670048122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.08481984690132734</v>
+      </c>
+      <c r="G32">
+        <v>0.04448747973201114</v>
+      </c>
+      <c r="H32">
+        <v>-0.01848594034897587</v>
+      </c>
+      <c r="I32">
+        <v>-0.04104337329365707</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.06656588182975075</v>
+        <v>-0.05681330229417397</v>
       </c>
       <c r="C33">
-        <v>-0.05697506842319447</v>
+        <v>-0.05383063556795743</v>
       </c>
       <c r="D33">
-        <v>0.01780829581554176</v>
+        <v>-0.01669416879676255</v>
       </c>
       <c r="E33">
-        <v>0.06175780319517544</v>
+        <v>-0.01717683159051209</v>
       </c>
       <c r="F33">
-        <v>0.04755325986460527</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.0747048134181456</v>
+      </c>
+      <c r="G33">
+        <v>0.04791456259949914</v>
+      </c>
+      <c r="H33">
+        <v>-0.03358714742240934</v>
+      </c>
+      <c r="I33">
+        <v>-0.005894840784783426</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.04927346047822445</v>
+        <v>-0.04342806040904813</v>
       </c>
       <c r="C34">
-        <v>-0.02210926185776007</v>
+        <v>-0.0342568369945399</v>
       </c>
       <c r="D34">
-        <v>0.003712461666070907</v>
+        <v>0.006192342419693608</v>
       </c>
       <c r="E34">
-        <v>0.0184312598680337</v>
+        <v>-0.01849726624187783</v>
       </c>
       <c r="F34">
-        <v>0.0236857463549406</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03348410797686634</v>
+      </c>
+      <c r="G34">
+        <v>0.01081097394484309</v>
+      </c>
+      <c r="H34">
+        <v>-0.006804427171619205</v>
+      </c>
+      <c r="I34">
+        <v>-0.002744894086578247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01628296418818443</v>
+        <v>-0.01600619282974748</v>
       </c>
       <c r="C36">
-        <v>-0.002947002902006737</v>
+        <v>-0.003416583791852387</v>
       </c>
       <c r="D36">
-        <v>0.01209152805413236</v>
+        <v>0.004847397031626361</v>
       </c>
       <c r="E36">
-        <v>0.02007170855875074</v>
+        <v>-0.01045295412593867</v>
       </c>
       <c r="F36">
-        <v>0.01106271109479726</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.02519419786549723</v>
+      </c>
+      <c r="G36">
+        <v>0.04065663943195957</v>
+      </c>
+      <c r="H36">
+        <v>-0.01572071266580799</v>
+      </c>
+      <c r="I36">
+        <v>0.006237812901003337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.0464878550479139</v>
+        <v>-0.03523022761900144</v>
       </c>
       <c r="C38">
-        <v>-0.02442902001177807</v>
+        <v>-0.01510977467898522</v>
       </c>
       <c r="D38">
-        <v>0.02149787537783104</v>
+        <v>0.004319641865656172</v>
       </c>
       <c r="E38">
-        <v>0.00665614558558815</v>
+        <v>-0.01277117622153095</v>
       </c>
       <c r="F38">
-        <v>0.02602243095770537</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.04752256535516101</v>
+      </c>
+      <c r="G38">
+        <v>0.02678313801810224</v>
+      </c>
+      <c r="H38">
+        <v>-0.02684053545499039</v>
+      </c>
+      <c r="I38">
+        <v>0.01399641475059193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.07064118762189145</v>
+        <v>-0.05353290672965434</v>
       </c>
       <c r="C39">
-        <v>-0.02656451899047726</v>
+        <v>-0.04621198079352346</v>
       </c>
       <c r="D39">
-        <v>0.006859824721480716</v>
+        <v>-0.003288527427111805</v>
       </c>
       <c r="E39">
-        <v>0.03520401997645346</v>
+        <v>-0.0200978946495312</v>
       </c>
       <c r="F39">
-        <v>0.02334912072571638</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.05501388612366628</v>
+      </c>
+      <c r="G39">
+        <v>0.007611506572581382</v>
+      </c>
+      <c r="H39">
+        <v>-0.0215785640518731</v>
+      </c>
+      <c r="I39">
+        <v>0.02481541254657101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07741052553908709</v>
+        <v>-0.05476786110030614</v>
       </c>
       <c r="C40">
-        <v>-0.04296198716331825</v>
+        <v>-0.04201382054088791</v>
       </c>
       <c r="D40">
-        <v>0.01163575522537401</v>
+        <v>-0.01806181503968327</v>
       </c>
       <c r="E40">
-        <v>0.04779361158313232</v>
+        <v>-0.0254383003406378</v>
       </c>
       <c r="F40">
-        <v>0.1016982925924542</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.09477849689173572</v>
+      </c>
+      <c r="G40">
+        <v>0.04850109348697364</v>
+      </c>
+      <c r="H40">
+        <v>-0.02159365397088723</v>
+      </c>
+      <c r="I40">
+        <v>-0.05765529937038522</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.0005433429145519409</v>
+        <v>-0.003637119094237278</v>
       </c>
       <c r="C41">
-        <v>-0.03194352169708604</v>
+        <v>-0.01161199174980753</v>
       </c>
       <c r="D41">
-        <v>0.02755771788884533</v>
+        <v>0.0006989840971860879</v>
       </c>
       <c r="E41">
-        <v>0.02116478633867696</v>
+        <v>-0.01121773801273424</v>
       </c>
       <c r="F41">
-        <v>-0.01110619990346292</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.0116105663090429</v>
+      </c>
+      <c r="G41">
+        <v>0.04322402646741036</v>
+      </c>
+      <c r="H41">
+        <v>-0.03133533534889308</v>
+      </c>
+      <c r="I41">
+        <v>-0.025481789305796</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.1306955802780858</v>
+        <v>-0.2255359673193391</v>
       </c>
       <c r="C42">
-        <v>-0.227349223819159</v>
+        <v>-0.2737096855202262</v>
       </c>
       <c r="D42">
-        <v>-0.9298371461278742</v>
+        <v>-0.04487190332623476</v>
       </c>
       <c r="E42">
-        <v>-0.006665918436370643</v>
+        <v>0.9035990598374631</v>
       </c>
       <c r="F42">
-        <v>-0.09222505243020317</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1558838045756304</v>
+      </c>
+      <c r="G42">
+        <v>-0.009065140853462066</v>
+      </c>
+      <c r="H42">
+        <v>0.004478354006721532</v>
+      </c>
+      <c r="I42">
+        <v>-0.0646483049360882</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.00477593517848965</v>
+        <v>-0.008473610209568362</v>
       </c>
       <c r="C43">
-        <v>-0.02975394499819531</v>
+        <v>-0.01309086306802281</v>
       </c>
       <c r="D43">
-        <v>0.02225885997230298</v>
+        <v>-0.001952768033078815</v>
       </c>
       <c r="E43">
-        <v>0.03111848318535877</v>
+        <v>-0.01135474163174721</v>
       </c>
       <c r="F43">
-        <v>0.01357433548409837</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.02587257702637283</v>
+      </c>
+      <c r="G43">
+        <v>0.03765801488047044</v>
+      </c>
+      <c r="H43">
+        <v>-0.01643260254670508</v>
+      </c>
+      <c r="I43">
+        <v>-0.0229979671728573</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.0401875563808208</v>
+        <v>-0.02929412326173438</v>
       </c>
       <c r="C44">
-        <v>-0.04677681666595495</v>
+        <v>-0.03907777025909184</v>
       </c>
       <c r="D44">
-        <v>0.01475309743120664</v>
+        <v>0.003821996232077494</v>
       </c>
       <c r="E44">
-        <v>0.09579691702401251</v>
+        <v>-0.01426753570124326</v>
       </c>
       <c r="F44">
-        <v>0.09025838167026458</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.1185356341750552</v>
+      </c>
+      <c r="G44">
+        <v>0.1017339598365745</v>
+      </c>
+      <c r="H44">
+        <v>-0.04439395553218672</v>
+      </c>
+      <c r="I44">
+        <v>-0.05463957942493739</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.02952119237210452</v>
+        <v>-0.0256743913045991</v>
       </c>
       <c r="C46">
-        <v>-0.03081006985732695</v>
+        <v>-0.0344787901504381</v>
       </c>
       <c r="D46">
-        <v>0.03439515695940933</v>
+        <v>-0.001262404672491366</v>
       </c>
       <c r="E46">
-        <v>0.03741560619606565</v>
+        <v>-0.03247453967319862</v>
       </c>
       <c r="F46">
-        <v>0.01011239752672619</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04622948065482796</v>
+      </c>
+      <c r="G46">
+        <v>0.06504315482999196</v>
+      </c>
+      <c r="H46">
+        <v>-0.009912421873632987</v>
+      </c>
+      <c r="I46">
+        <v>-0.006802809211945615</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09399362014303742</v>
+        <v>-0.0872007764526819</v>
       </c>
       <c r="C47">
-        <v>-0.01496679057479328</v>
+        <v>-0.01846170597208485</v>
       </c>
       <c r="D47">
-        <v>0.02142850825681457</v>
+        <v>-0.003673130042753677</v>
       </c>
       <c r="E47">
-        <v>0.003510579389147586</v>
+        <v>-0.02714925294429482</v>
       </c>
       <c r="F47">
-        <v>-0.02935573626777923</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.01462758843710874</v>
+      </c>
+      <c r="G47">
+        <v>0.06567253745910209</v>
+      </c>
+      <c r="H47">
+        <v>-0.02275115043781515</v>
+      </c>
+      <c r="I47">
+        <v>-0.03577656111084106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.01990272485695642</v>
+        <v>-0.02065503988496509</v>
       </c>
       <c r="C48">
-        <v>-0.02697970544972447</v>
+        <v>-0.01953800462061635</v>
       </c>
       <c r="D48">
-        <v>0.01905993326083029</v>
+        <v>0.002054156439764077</v>
       </c>
       <c r="E48">
-        <v>0.02734929569190779</v>
+        <v>-0.01547441262544929</v>
       </c>
       <c r="F48">
-        <v>0.01409810052676454</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.02552861937351587</v>
+      </c>
+      <c r="G48">
+        <v>0.02918823679606085</v>
+      </c>
+      <c r="H48">
+        <v>-0.01244950889615124</v>
+      </c>
+      <c r="I48">
+        <v>-0.01372550622249092</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.09191623742281017</v>
+        <v>-0.08789861670993483</v>
       </c>
       <c r="C50">
-        <v>-0.04044287830823291</v>
+        <v>-0.03978667313191819</v>
       </c>
       <c r="D50">
-        <v>0.02403433203698566</v>
+        <v>0.01282302420867622</v>
       </c>
       <c r="E50">
-        <v>0.02026007427803904</v>
+        <v>-0.0276534653078985</v>
       </c>
       <c r="F50">
-        <v>-0.03535079174783035</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.006203905659089749</v>
+      </c>
+      <c r="G50">
+        <v>0.04324203066598001</v>
+      </c>
+      <c r="H50">
+        <v>0.01400009653749437</v>
+      </c>
+      <c r="I50">
+        <v>0.003838655331235426</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05565283370078043</v>
+        <v>-0.0393950261966293</v>
       </c>
       <c r="C51">
-        <v>0.01134401764431464</v>
+        <v>0.004388351639036323</v>
       </c>
       <c r="D51">
-        <v>0.00521899838889834</v>
+        <v>-0.01145775182728918</v>
       </c>
       <c r="E51">
-        <v>0.09067113274521506</v>
+        <v>-0.01090825066504245</v>
       </c>
       <c r="F51">
-        <v>0.03566972660617013</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.09393521994711626</v>
+      </c>
+      <c r="G51">
+        <v>0.07296978765890148</v>
+      </c>
+      <c r="H51">
+        <v>-0.04545948885858975</v>
+      </c>
+      <c r="I51">
+        <v>-0.02877657815445916</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1372459130628474</v>
+        <v>-0.1247468224298918</v>
       </c>
       <c r="C53">
-        <v>-0.03147694889329129</v>
+        <v>-0.03832931208394588</v>
       </c>
       <c r="D53">
-        <v>0.04612415210669481</v>
+        <v>-0.003644561140024894</v>
       </c>
       <c r="E53">
-        <v>-0.01380698022301388</v>
+        <v>-0.05754925188437901</v>
       </c>
       <c r="F53">
-        <v>-0.05981625330641454</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.04730491151637784</v>
+      </c>
+      <c r="G53">
+        <v>0.008225653710577121</v>
+      </c>
+      <c r="H53">
+        <v>-0.02620256253897539</v>
+      </c>
+      <c r="I53">
+        <v>-0.04173762666751311</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.0284360893253022</v>
+        <v>-0.02636944672903543</v>
       </c>
       <c r="C54">
-        <v>-0.009036814886113362</v>
+        <v>-0.003939173358240071</v>
       </c>
       <c r="D54">
-        <v>0.03298714464970861</v>
+        <v>0.005972269626164642</v>
       </c>
       <c r="E54">
-        <v>0.03060712610447498</v>
+        <v>-0.028576939135794</v>
       </c>
       <c r="F54">
-        <v>0.01593823427006722</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.03093813142200533</v>
+      </c>
+      <c r="G54">
+        <v>0.06070789227574038</v>
+      </c>
+      <c r="H54">
+        <v>-0.02770561677872123</v>
+      </c>
+      <c r="I54">
+        <v>-0.02466023254734354</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1025142347166439</v>
+        <v>-0.09837743361604807</v>
       </c>
       <c r="C55">
-        <v>-0.008594621164328353</v>
+        <v>-0.03300080418700613</v>
       </c>
       <c r="D55">
-        <v>0.03953759637031479</v>
+        <v>0.01340479130771749</v>
       </c>
       <c r="E55">
-        <v>-0.04065265715519219</v>
+        <v>-0.03742489917498684</v>
       </c>
       <c r="F55">
-        <v>-0.001978220412160929</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.03317328418463325</v>
+      </c>
+      <c r="G55">
+        <v>0.01643683506910035</v>
+      </c>
+      <c r="H55">
+        <v>0.01255530507787297</v>
+      </c>
+      <c r="I55">
+        <v>-0.01681461515627231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1745600707725236</v>
+        <v>-0.1637458541566364</v>
       </c>
       <c r="C56">
-        <v>0.006202326426629704</v>
+        <v>-0.02096113001414366</v>
       </c>
       <c r="D56">
-        <v>0.08527267306269405</v>
+        <v>0.000947966719353942</v>
       </c>
       <c r="E56">
-        <v>-0.07685443953297685</v>
+        <v>-0.08866767469357631</v>
       </c>
       <c r="F56">
-        <v>-0.08053548410538623</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.09175083872829268</v>
+      </c>
+      <c r="G56">
+        <v>-0.04485433929318018</v>
+      </c>
+      <c r="H56">
+        <v>0.006706236838862819</v>
+      </c>
+      <c r="I56">
+        <v>-0.04065976584382252</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.08251174168186365</v>
+        <v>-0.06529299057796728</v>
       </c>
       <c r="C57">
-        <v>-0.03257519177198077</v>
+        <v>-0.03236539307110705</v>
       </c>
       <c r="D57">
-        <v>0.01730277797867359</v>
+        <v>-0.01693697190135846</v>
       </c>
       <c r="E57">
-        <v>0.05842511279364283</v>
+        <v>-0.007499363138757706</v>
       </c>
       <c r="F57">
-        <v>0.01599054999456087</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.06522016850476015</v>
+      </c>
+      <c r="G57">
+        <v>0.03428208872483358</v>
+      </c>
+      <c r="H57">
+        <v>-0.01559497506855528</v>
+      </c>
+      <c r="I57">
+        <v>-0.007350861709681685</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.1992377688989888</v>
+        <v>-0.2081781900874234</v>
       </c>
       <c r="C58">
-        <v>-0.03668013300259646</v>
+        <v>-0.104169057660252</v>
       </c>
       <c r="D58">
-        <v>0.002169556107077348</v>
+        <v>-0.08764004823004404</v>
       </c>
       <c r="E58">
-        <v>0.09743545477447216</v>
+        <v>0.01442711126848792</v>
       </c>
       <c r="F58">
-        <v>0.09834604255600798</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2712184073502754</v>
+      </c>
+      <c r="G58">
+        <v>0.3293959825043716</v>
+      </c>
+      <c r="H58">
+        <v>0.3439753817286769</v>
+      </c>
+      <c r="I58">
+        <v>0.3768265096157746</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.02751701141078397</v>
+        <v>-0.05333550626500297</v>
       </c>
       <c r="C59">
-        <v>0.1962012865688601</v>
+        <v>0.1982211779568566</v>
       </c>
       <c r="D59">
-        <v>-0.001148625884593805</v>
+        <v>-0.02640843694336991</v>
       </c>
       <c r="E59">
-        <v>0.0374638984046245</v>
+        <v>0.01569556854978607</v>
       </c>
       <c r="F59">
-        <v>0.0333084094212062</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.06584523219720598</v>
+      </c>
+      <c r="G59">
+        <v>-0.0185991207714966</v>
+      </c>
+      <c r="H59">
+        <v>-0.01524853822753231</v>
+      </c>
+      <c r="I59">
+        <v>-0.05218908552442875</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1903671132178299</v>
+        <v>-0.19241560990223</v>
       </c>
       <c r="C60">
-        <v>0.08735669314890537</v>
+        <v>0.04626824163207249</v>
       </c>
       <c r="D60">
-        <v>0.0101030837833837</v>
+        <v>-0.05341779107602578</v>
       </c>
       <c r="E60">
-        <v>0.1235146158755693</v>
+        <v>-0.01539603614266428</v>
       </c>
       <c r="F60">
-        <v>0.1236006759482999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1990747312329951</v>
+      </c>
+      <c r="G60">
+        <v>-0.2820550940935993</v>
+      </c>
+      <c r="H60">
+        <v>-0.03756878624062106</v>
+      </c>
+      <c r="I60">
+        <v>0.09043749738267687</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.04264487119088936</v>
+        <v>-0.03851517200165602</v>
       </c>
       <c r="C61">
-        <v>-0.01256942133753655</v>
+        <v>-0.0283663686922664</v>
       </c>
       <c r="D61">
-        <v>0.002396708112763119</v>
+        <v>0.001777914719138793</v>
       </c>
       <c r="E61">
-        <v>0.02122609711886605</v>
+        <v>-0.008161117792634863</v>
       </c>
       <c r="F61">
-        <v>0.02985785396000735</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03801057221410069</v>
+      </c>
+      <c r="G61">
+        <v>0.001283613519307417</v>
+      </c>
+      <c r="H61">
+        <v>-0.01579937540798897</v>
+      </c>
+      <c r="I61">
+        <v>0.03452405728562446</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.04282176862658887</v>
+        <v>-0.03149209683555831</v>
       </c>
       <c r="C63">
-        <v>-0.01897626160036637</v>
+        <v>-0.02293953323979692</v>
       </c>
       <c r="D63">
-        <v>0.01507479837092001</v>
+        <v>-0.0007275912740407753</v>
       </c>
       <c r="E63">
-        <v>0.03866940521017992</v>
+        <v>-0.01562449681150821</v>
       </c>
       <c r="F63">
-        <v>0.01935069446294176</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02889211296376171</v>
+      </c>
+      <c r="G63">
+        <v>0.05208043742008796</v>
+      </c>
+      <c r="H63">
+        <v>0.001033381707375038</v>
+      </c>
+      <c r="I63">
+        <v>-0.03657550017391973</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.07602575682591993</v>
+        <v>-0.0603520866708151</v>
       </c>
       <c r="C64">
-        <v>-0.05180780179410914</v>
+        <v>-0.0429500975602554</v>
       </c>
       <c r="D64">
-        <v>0.05871625955136816</v>
+        <v>0.01628383646662305</v>
       </c>
       <c r="E64">
-        <v>-0.009807210673597256</v>
+        <v>-0.04496611870214687</v>
       </c>
       <c r="F64">
-        <v>0.04709704626290187</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.04359452743995006</v>
+      </c>
+      <c r="G64">
+        <v>0.01789648043742884</v>
+      </c>
+      <c r="H64">
+        <v>-0.07026201900443647</v>
+      </c>
+      <c r="I64">
+        <v>-0.0343277762528181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.02260990807640139</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.01125629179534538</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.005924617139958579</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.005768413625684522</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.004067495968659627</v>
+      </c>
+      <c r="G65">
+        <v>-0.01163152098771169</v>
+      </c>
+      <c r="H65">
+        <v>0.01671240782677796</v>
+      </c>
+      <c r="I65">
+        <v>0.01634526008619677</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.08053689021705174</v>
+        <v>-0.0675935266670709</v>
       </c>
       <c r="C66">
-        <v>-0.03892670643990934</v>
+        <v>-0.05476147670633244</v>
       </c>
       <c r="D66">
-        <v>0.03434946301187577</v>
+        <v>-0.0107019608552391</v>
       </c>
       <c r="E66">
-        <v>0.05103937025966936</v>
+        <v>-0.0477538185860685</v>
       </c>
       <c r="F66">
-        <v>0.05998464072690216</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06717405388115028</v>
+      </c>
+      <c r="G66">
+        <v>0.003728590705197461</v>
+      </c>
+      <c r="H66">
+        <v>-0.01076436931576111</v>
+      </c>
+      <c r="I66">
+        <v>0.01314198715443371</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.05613027776235458</v>
+        <v>-0.04812998021260897</v>
       </c>
       <c r="C67">
-        <v>0.004109309683464519</v>
+        <v>0.003181669576707511</v>
       </c>
       <c r="D67">
-        <v>0.01070400611248731</v>
+        <v>-0.002003838242181627</v>
       </c>
       <c r="E67">
-        <v>0.01066019299308039</v>
+        <v>-0.00891205357092463</v>
       </c>
       <c r="F67">
-        <v>0.01365319824664491</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.03595574847396482</v>
+      </c>
+      <c r="G67">
+        <v>0.01251443407472136</v>
+      </c>
+      <c r="H67">
+        <v>-0.04186360309153086</v>
+      </c>
+      <c r="I67">
+        <v>0.03711557098195806</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.04075875850082372</v>
+        <v>-0.06437819920170401</v>
       </c>
       <c r="C68">
-        <v>0.2429378024262273</v>
+        <v>0.2333652339361255</v>
       </c>
       <c r="D68">
-        <v>-0.01999679775988551</v>
+        <v>-0.02816180893166332</v>
       </c>
       <c r="E68">
-        <v>0.03556883893297762</v>
+        <v>0.03521074084015053</v>
       </c>
       <c r="F68">
-        <v>0.01536886100566674</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.04595505971537085</v>
+      </c>
+      <c r="G68">
+        <v>-0.01915017750394558</v>
+      </c>
+      <c r="H68">
+        <v>0.01116191437459727</v>
+      </c>
+      <c r="I68">
+        <v>-0.1277134711371505</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07507204685739138</v>
+        <v>-0.07268409880958718</v>
       </c>
       <c r="C69">
-        <v>-0.01299247361629663</v>
+        <v>-0.02019566558112415</v>
       </c>
       <c r="D69">
-        <v>0.02520691064557792</v>
+        <v>-0.005177470296413803</v>
       </c>
       <c r="E69">
-        <v>0.00626500170489073</v>
+        <v>-0.03132125390527644</v>
       </c>
       <c r="F69">
-        <v>-0.02315690010571627</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.003633040744803358</v>
+      </c>
+      <c r="G69">
+        <v>0.03965504575850038</v>
+      </c>
+      <c r="H69">
+        <v>-0.01774371940872192</v>
+      </c>
+      <c r="I69">
+        <v>-0.008524107927247717</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.03602937396248049</v>
+        <v>-0.05950029421353947</v>
       </c>
       <c r="C71">
-        <v>0.2829845924078541</v>
+        <v>0.2510379587511914</v>
       </c>
       <c r="D71">
-        <v>-0.03335995688516653</v>
+        <v>-0.03235875551597094</v>
       </c>
       <c r="E71">
-        <v>0.08892695865763847</v>
+        <v>0.06222986412336214</v>
       </c>
       <c r="F71">
-        <v>0.0227304151767032</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.06534023527431135</v>
+      </c>
+      <c r="G71">
+        <v>-0.009648947211058032</v>
+      </c>
+      <c r="H71">
+        <v>-0.01788493609657364</v>
+      </c>
+      <c r="I71">
+        <v>-0.11368425868858</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1313167657417043</v>
+        <v>-0.1243905513240468</v>
       </c>
       <c r="C72">
-        <v>0.0152762383950442</v>
+        <v>-0.03079765433332237</v>
       </c>
       <c r="D72">
-        <v>0.04710206745875629</v>
+        <v>-0.00469271244004853</v>
       </c>
       <c r="E72">
-        <v>0.03906099660619689</v>
+        <v>-0.06661486630142874</v>
       </c>
       <c r="F72">
-        <v>0.06829534921679796</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.0822547118089766</v>
+      </c>
+      <c r="G72">
+        <v>-0.008390894348617079</v>
+      </c>
+      <c r="H72">
+        <v>0.03480343720323953</v>
+      </c>
+      <c r="I72">
+        <v>0.1072677474203831</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2947481588878633</v>
+        <v>-0.27502076601976</v>
       </c>
       <c r="C73">
-        <v>0.1818232406642694</v>
+        <v>0.07519493346023268</v>
       </c>
       <c r="D73">
-        <v>-0.05292249423667698</v>
+        <v>-0.09324582676401144</v>
       </c>
       <c r="E73">
-        <v>0.1992898832134452</v>
+        <v>0.03671891617912343</v>
       </c>
       <c r="F73">
-        <v>0.2561785414942176</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.3081355273892554</v>
+      </c>
+      <c r="G73">
+        <v>-0.4938285935367493</v>
+      </c>
+      <c r="H73">
+        <v>0.001737498710694844</v>
+      </c>
+      <c r="I73">
+        <v>0.2803445176547687</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1543326270778003</v>
+        <v>-0.1494199295121155</v>
       </c>
       <c r="C74">
-        <v>-0.02501276255022802</v>
+        <v>-0.03576483537383755</v>
       </c>
       <c r="D74">
-        <v>0.03827874961114459</v>
+        <v>-0.01053788332531497</v>
       </c>
       <c r="E74">
-        <v>-0.008496458326227162</v>
+        <v>-0.05150002465851707</v>
       </c>
       <c r="F74">
-        <v>-0.0505566463284975</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.06487740156944817</v>
+      </c>
+      <c r="G74">
+        <v>-0.02470516891480146</v>
+      </c>
+      <c r="H74">
+        <v>0.0044898319172385</v>
+      </c>
+      <c r="I74">
+        <v>-0.03115250650206217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2367768325228589</v>
+        <v>-0.241994208056947</v>
       </c>
       <c r="C75">
-        <v>-0.01683327897668442</v>
+        <v>-0.02897097457713014</v>
       </c>
       <c r="D75">
-        <v>0.0760292290865021</v>
+        <v>-0.02602602514238335</v>
       </c>
       <c r="E75">
-        <v>-0.05039579267242728</v>
+        <v>-0.116160537230016</v>
       </c>
       <c r="F75">
-        <v>-0.1404037778374687</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1494341448074786</v>
+      </c>
+      <c r="G75">
+        <v>-0.02257193635518943</v>
+      </c>
+      <c r="H75">
+        <v>-0.01247669436938792</v>
+      </c>
+      <c r="I75">
+        <v>-0.08054743788092807</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2471911760722479</v>
+        <v>-0.2624101499667268</v>
       </c>
       <c r="C76">
-        <v>0.01669347099859128</v>
+        <v>-0.01503204697746314</v>
       </c>
       <c r="D76">
-        <v>0.1051738471629004</v>
+        <v>0.0136285456190159</v>
       </c>
       <c r="E76">
-        <v>-0.1010644569755446</v>
+        <v>-0.1390881989100572</v>
       </c>
       <c r="F76">
-        <v>-0.0991727283926029</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1825870664503786</v>
+      </c>
+      <c r="G76">
+        <v>-0.04924864720057758</v>
+      </c>
+      <c r="H76">
+        <v>0.05763556319846896</v>
+      </c>
+      <c r="I76">
+        <v>-0.0452940661632477</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1345084738692721</v>
+        <v>-0.120620842047207</v>
       </c>
       <c r="C77">
-        <v>-0.06256470472468063</v>
+        <v>-0.07618070405719925</v>
       </c>
       <c r="D77">
-        <v>-0.03138060317421107</v>
+        <v>-0.004161323059274156</v>
       </c>
       <c r="E77">
-        <v>0.06803563639266783</v>
+        <v>0.03032976444750456</v>
       </c>
       <c r="F77">
-        <v>0.1525024874071395</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.1601142785978562</v>
+      </c>
+      <c r="G77">
+        <v>0.1762229483553475</v>
+      </c>
+      <c r="H77">
+        <v>0.04747529017214011</v>
+      </c>
+      <c r="I77">
+        <v>-0.2898729147763524</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.08354388824875854</v>
+        <v>-0.07447821831388952</v>
       </c>
       <c r="C78">
-        <v>-0.05207339398235382</v>
+        <v>-0.07376733679878111</v>
       </c>
       <c r="D78">
-        <v>-0.01033295342072736</v>
+        <v>0.008492801470536122</v>
       </c>
       <c r="E78">
-        <v>0.02720433906041073</v>
+        <v>-0.01383529322318775</v>
       </c>
       <c r="F78">
-        <v>0.04570935596595221</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.07626688305710913</v>
+      </c>
+      <c r="G78">
+        <v>0.02683424513357289</v>
+      </c>
+      <c r="H78">
+        <v>-0.01545030059107221</v>
+      </c>
+      <c r="I78">
+        <v>-0.03534357832280933</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.05845151478296665</v>
+        <v>-0.1351735895592153</v>
       </c>
       <c r="C80">
-        <v>0.04168076800291499</v>
+        <v>0.08146066873318962</v>
       </c>
       <c r="D80">
-        <v>-0.05207573148442533</v>
+        <v>0.9724286023910674</v>
       </c>
       <c r="E80">
-        <v>-0.8126927214743569</v>
+        <v>0.05975089488630937</v>
       </c>
       <c r="F80">
-        <v>0.4997925093942907</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.04746968601071989</v>
+      </c>
+      <c r="G80">
+        <v>-0.03532695534246733</v>
+      </c>
+      <c r="H80">
+        <v>-0.04197350040066784</v>
+      </c>
+      <c r="I80">
+        <v>0.06063293998110506</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1624414318765202</v>
+        <v>-0.1787843518042524</v>
       </c>
       <c r="C81">
-        <v>-0.01302276626322571</v>
+        <v>-0.01152298488194535</v>
       </c>
       <c r="D81">
-        <v>0.05411950398542959</v>
+        <v>-0.005818798504023706</v>
       </c>
       <c r="E81">
-        <v>-0.09143850300783693</v>
+        <v>-0.08528784833858104</v>
       </c>
       <c r="F81">
-        <v>-0.1523029611438</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1586938170532891</v>
+      </c>
+      <c r="G81">
+        <v>-0.01552669034047828</v>
+      </c>
+      <c r="H81">
+        <v>0.0254092947459718</v>
+      </c>
+      <c r="I81">
+        <v>-0.04022734502327199</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.09020746178730213</v>
+        <v>-0.06795369144172041</v>
       </c>
       <c r="C83">
-        <v>-0.07616572583802134</v>
+        <v>-0.05712377068235394</v>
       </c>
       <c r="D83">
-        <v>-0.06680362635143419</v>
+        <v>-0.01141384987999624</v>
       </c>
       <c r="E83">
-        <v>0.05311949779477126</v>
+        <v>0.03407341574372451</v>
       </c>
       <c r="F83">
-        <v>-0.009349242614459014</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.04715040956330652</v>
+      </c>
+      <c r="G83">
+        <v>0.04991932970209256</v>
+      </c>
+      <c r="H83">
+        <v>-0.06030298456960237</v>
+      </c>
+      <c r="I83">
+        <v>-0.03993150142520778</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2378705679202137</v>
+        <v>-0.2472228809636161</v>
       </c>
       <c r="C85">
-        <v>-0.05594058721535516</v>
+        <v>-0.05733054628637628</v>
       </c>
       <c r="D85">
-        <v>0.06728584524855562</v>
+        <v>-0.003227304190686827</v>
       </c>
       <c r="E85">
-        <v>-0.1090265448431684</v>
+        <v>-0.1116531911148071</v>
       </c>
       <c r="F85">
-        <v>-0.1159085593657772</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1842133939463912</v>
+      </c>
+      <c r="G85">
+        <v>0.0072368009540839</v>
+      </c>
+      <c r="H85">
+        <v>0.02566027258051398</v>
+      </c>
+      <c r="I85">
+        <v>-0.06740373775899247</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.03900979876652764</v>
+        <v>-0.02734066251961582</v>
       </c>
       <c r="C86">
-        <v>-0.04922877828890285</v>
+        <v>-0.05010078937994222</v>
       </c>
       <c r="D86">
-        <v>0.006882106831197935</v>
+        <v>0.0007205453533826966</v>
       </c>
       <c r="E86">
-        <v>0.04193996552248137</v>
+        <v>-0.01778994529396734</v>
       </c>
       <c r="F86">
-        <v>0.06084670465457572</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.08184387583526644</v>
+      </c>
+      <c r="G86">
+        <v>0.06821737898223894</v>
+      </c>
+      <c r="H86">
+        <v>0.001271374002319844</v>
+      </c>
+      <c r="I86">
+        <v>-0.02683359804951334</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.03121064464661984</v>
+        <v>-0.0342157623536269</v>
       </c>
       <c r="C87">
-        <v>0.05590106686490658</v>
+        <v>0.00889269920360166</v>
       </c>
       <c r="D87">
-        <v>-0.00417130206850895</v>
+        <v>-0.002028229834053817</v>
       </c>
       <c r="E87">
-        <v>0.05200679706263125</v>
+        <v>0.0004214032159028749</v>
       </c>
       <c r="F87">
-        <v>0.08516705635503818</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.1034252565722227</v>
+      </c>
+      <c r="G87">
+        <v>0.00438772002472489</v>
+      </c>
+      <c r="H87">
+        <v>0.01797533794882309</v>
+      </c>
+      <c r="I87">
+        <v>-0.002423786539523689</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.0294529237631869</v>
+        <v>-0.0316387713263276</v>
       </c>
       <c r="C88">
-        <v>-0.02868818981268766</v>
+        <v>-0.01034166410957939</v>
       </c>
       <c r="D88">
-        <v>0.002114455101152902</v>
+        <v>0.008944879258117626</v>
       </c>
       <c r="E88">
-        <v>-0.008243738946828911</v>
+        <v>-0.006701832911928511</v>
       </c>
       <c r="F88">
-        <v>-0.005604989526859373</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01221322187109316</v>
+      </c>
+      <c r="G88">
+        <v>0.04092633548331946</v>
+      </c>
+      <c r="H88">
+        <v>-0.03939708484666122</v>
+      </c>
+      <c r="I88">
+        <v>0.01072102569355408</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.04211259814160022</v>
+        <v>-0.0934746984625823</v>
       </c>
       <c r="C89">
-        <v>0.3867257470852531</v>
+        <v>0.3853787356162828</v>
       </c>
       <c r="D89">
-        <v>-0.09868789019816135</v>
+        <v>-0.06390038140399637</v>
       </c>
       <c r="E89">
-        <v>0.05005384002032972</v>
+        <v>0.07946175165574472</v>
       </c>
       <c r="F89">
-        <v>-0.0372755610636961</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.02834373062537502</v>
+      </c>
+      <c r="G89">
+        <v>0.05295436474272863</v>
+      </c>
+      <c r="H89">
+        <v>-0.02608394909537795</v>
+      </c>
+      <c r="I89">
+        <v>-0.2266141684382758</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.03032671136048962</v>
+        <v>-0.06014913476246822</v>
       </c>
       <c r="C90">
-        <v>0.2990430113798912</v>
+        <v>0.3162994626604194</v>
       </c>
       <c r="D90">
-        <v>-0.051515178576261</v>
+        <v>-0.03350511705224401</v>
       </c>
       <c r="E90">
-        <v>0.01834521885996619</v>
+        <v>0.0631077339041763</v>
       </c>
       <c r="F90">
-        <v>0.03927197854001956</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.03062098394059932</v>
+      </c>
+      <c r="G90">
+        <v>0.002451841643499572</v>
+      </c>
+      <c r="H90">
+        <v>-0.006443312302402571</v>
+      </c>
+      <c r="I90">
+        <v>-0.1813046394197323</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2742841153868903</v>
+        <v>-0.2855600641898813</v>
       </c>
       <c r="C91">
-        <v>-0.05982996139754362</v>
+        <v>-0.06111403376541009</v>
       </c>
       <c r="D91">
-        <v>0.07801485566703743</v>
+        <v>-0.01195790916356851</v>
       </c>
       <c r="E91">
-        <v>-0.1768647816269041</v>
+        <v>-0.1089824090164436</v>
       </c>
       <c r="F91">
-        <v>-0.2189570078841394</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.2776736819420909</v>
+      </c>
+      <c r="G91">
+        <v>-0.02055017311027928</v>
+      </c>
+      <c r="H91">
+        <v>0.04523781385151087</v>
+      </c>
+      <c r="I91">
+        <v>-0.08424252641257568</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.07088298867078811</v>
+        <v>-0.1324854458062985</v>
       </c>
       <c r="C92">
-        <v>0.3902772866656014</v>
+        <v>0.4049407806243251</v>
       </c>
       <c r="D92">
-        <v>-0.1623579378652241</v>
+        <v>-0.02161395959253475</v>
       </c>
       <c r="E92">
-        <v>-0.1033019298970639</v>
+        <v>0.1116032665064337</v>
       </c>
       <c r="F92">
-        <v>-0.07760030718297244</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1160550801619759</v>
+      </c>
+      <c r="G92">
+        <v>0.4779542399440247</v>
+      </c>
+      <c r="H92">
+        <v>0.04126212316896056</v>
+      </c>
+      <c r="I92">
+        <v>0.5021350980871357</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.02752360580765166</v>
+        <v>-0.07891182284535125</v>
       </c>
       <c r="C93">
-        <v>0.3709757391664179</v>
+        <v>0.3891376383620052</v>
       </c>
       <c r="D93">
-        <v>-0.08164585976131752</v>
+        <v>-0.05470513751118482</v>
       </c>
       <c r="E93">
-        <v>-0.00527699500257649</v>
+        <v>0.1062792320831672</v>
       </c>
       <c r="F93">
-        <v>-0.03319178279165956</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.004995297693695997</v>
+      </c>
+      <c r="G93">
+        <v>-0.01103559615736956</v>
+      </c>
+      <c r="H93">
+        <v>-0.05040892991102233</v>
+      </c>
+      <c r="I93">
+        <v>-0.1073432903621672</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2879893597217796</v>
+        <v>-0.3082371840610063</v>
       </c>
       <c r="C94">
-        <v>0.06645612916950881</v>
+        <v>0.02576525954673655</v>
       </c>
       <c r="D94">
-        <v>0.02747672067373064</v>
+        <v>-0.04152277128391953</v>
       </c>
       <c r="E94">
-        <v>-0.2101188932373137</v>
+        <v>-0.1240410476963011</v>
       </c>
       <c r="F94">
-        <v>-0.29304246376624</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.3240354012120796</v>
+      </c>
+      <c r="G94">
+        <v>0.02953053889457042</v>
+      </c>
+      <c r="H94">
+        <v>0.2294636988708895</v>
+      </c>
+      <c r="I94">
+        <v>-0.02828349623213636</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1661307058170665</v>
+        <v>-0.1314117844474653</v>
       </c>
       <c r="C95">
-        <v>-0.05389773512375242</v>
+        <v>-0.0568734775505347</v>
       </c>
       <c r="D95">
-        <v>-0.00268073664304449</v>
+        <v>-0.08222581726666434</v>
       </c>
       <c r="E95">
-        <v>-0.03554398981419258</v>
+        <v>-0.03483749736026347</v>
       </c>
       <c r="F95">
-        <v>-0.3838331207401957</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1054843491239197</v>
+      </c>
+      <c r="G95">
+        <v>0.1370659096877713</v>
+      </c>
+      <c r="H95">
+        <v>-0.8764109196626401</v>
+      </c>
+      <c r="I95">
+        <v>0.1966503912575008</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2161687960371863</v>
+        <v>-0.2092862035634744</v>
       </c>
       <c r="C98">
-        <v>0.09225378383279441</v>
+        <v>0.05647290010720588</v>
       </c>
       <c r="D98">
-        <v>-0.03928046918958533</v>
+        <v>-0.06576514044871888</v>
       </c>
       <c r="E98">
-        <v>0.09326709014478006</v>
+        <v>0.02791623297403061</v>
       </c>
       <c r="F98">
-        <v>0.03995838579134287</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.164501584204788</v>
+      </c>
+      <c r="G98">
+        <v>-0.3293694361896082</v>
+      </c>
+      <c r="H98">
+        <v>-0.03477588070629176</v>
+      </c>
+      <c r="I98">
+        <v>0.1672573153683715</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.0263132504767492</v>
+        <v>-0.01777413858589116</v>
       </c>
       <c r="C101">
-        <v>-0.02365520894517379</v>
+        <v>-0.02732168108100664</v>
       </c>
       <c r="D101">
-        <v>0.03462997048954995</v>
+        <v>0.006494681726502908</v>
       </c>
       <c r="E101">
-        <v>0.02413677813985615</v>
+        <v>-0.03604870742254145</v>
       </c>
       <c r="F101">
-        <v>0.023249440252336</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.06550644713162744</v>
+      </c>
+      <c r="G101">
+        <v>0.119019107984842</v>
+      </c>
+      <c r="H101">
+        <v>0.02925160867500934</v>
+      </c>
+      <c r="I101">
+        <v>0.07814474856230548</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1088928162155534</v>
+        <v>-0.1164303031976714</v>
       </c>
       <c r="C102">
-        <v>-0.03609087909408224</v>
+        <v>-0.03014578420219859</v>
       </c>
       <c r="D102">
-        <v>0.04227919515543593</v>
+        <v>0.007935087523768126</v>
       </c>
       <c r="E102">
-        <v>-0.07601520876388908</v>
+        <v>-0.05560639880003713</v>
       </c>
       <c r="F102">
-        <v>-0.06547039923435942</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.1124420565676245</v>
+      </c>
+      <c r="G102">
+        <v>-0.004015039530071979</v>
+      </c>
+      <c r="H102">
+        <v>0.004993507867580425</v>
+      </c>
+      <c r="I102">
+        <v>-0.06836707678524438</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.02153393077158454</v>
+        <v>-0.02893885993453847</v>
       </c>
       <c r="C103">
-        <v>-0.009675642574975893</v>
+        <v>-0.007677855322372565</v>
       </c>
       <c r="D103">
-        <v>0.01105740025273998</v>
+        <v>0.009124877350024247</v>
       </c>
       <c r="E103">
-        <v>-0.006974114612399209</v>
+        <v>-0.01928279994993685</v>
       </c>
       <c r="F103">
-        <v>-0.03459715853330002</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.02667495989749937</v>
+      </c>
+      <c r="G103">
+        <v>0.01516942792897998</v>
+      </c>
+      <c r="H103">
+        <v>-0.008858018267834675</v>
+      </c>
+      <c r="I103">
+        <v>-0.02097312890162022</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
